--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MADHUCHERAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIH\leaf_detector\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731D3A25-66B8-4325-9D24-F40ECDE4DD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC67A8F-BD9B-4D58-A818-BDDE0B84BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F80C0F88-7C76-4792-829A-AC606FA140A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E641C270-5A35-4114-8063-A325B8F0293E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,147 +25,347 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Medicinal Plants</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Mexican Mint</t>
-  </si>
-  <si>
-    <t>Mexican Mint also known as Indian Borage. It  improve the health of your skin,zz detoxify the body, defend against colds, ease the pain of arthritis, relieve stress and anxiety, treat certain kinds of cancer, and optimize digestion.Mexican Mint leaves are commonly used in full or powdered form and can be eaten normally or rubbed topically on the skin for some of its effects.Mexican mint is a member of the mint family, and has similar leaf-shape. It blooms with small, vibrant golden-yellow to orange flowers, resembling marigolds, adding to its ornamental charm.  Beyond its culinary applications, Mexican mint is revered for its traditional medicinal uses, believed to aid digestion and alleviate various ailments.  Moreover, it's a relatively easy-to-grow herb in temperate climates, making it a popular choice among gardeners and culinary enthusiasts alike.</t>
-  </si>
-  <si>
-    <t>Mexican Prickly Poppy</t>
-  </si>
-  <si>
-    <t>Mexican prickly poppy, scientifically known as Argemone mexicana, is a flowering plant native to Mexico but can also be found in other parts of the Americas. n Mexico, folk medicine applications of prickly poppy included both external and internal remedies. It is listed as a purgative, and as a treatment for chest pains and asthma, and as a curative for bad blood, fading liver, fevers, and bad breath.The plant is also used as healing agent in the treatment of malaria, warts, cold sores, skin diseases and itches.Mexican prickly poppy (Argemone mexicana) is not typically consumed as a food or herbal remedy due to its toxic properties.The plant is bluish-green or greyish-green in colour with waxy marbling to the leaves. The plant bears striking papery flowers, usually white to yellow in color, with bright yellow centers, making it an ornamental gem. After flowering, it produces distinctive spiky seed pods that contain numerous small seeds. Mexican prickly poppy is cultivated for its captivating appearance and ability to thrive in various climates, making it a fascinating but potentially hazardous botanical specimen.</t>
-  </si>
-  <si>
-    <t>Mountain Knotgrass</t>
-  </si>
-  <si>
-    <t>Mountain knotgrass, scientifically known as Polygonum viviparum. This herb is described as one of the best known remedies for bladder and kidney stones. Ayurvedic practitioners recommend a decoction of the plant to be taken internally for a few days to dissolves the stone and to clear the urinary path.Mountain knotgrass (Polygonum viviparum) is not typically consumed as a food or herbal remedy. While it has been used in traditional herbal medicine for its astringent properties, its use is relatively limited compared to other plants. It forms low mats or patches of vegetation, adorned with small, inconspicuous greenish-white flowers. What truly distinguishes mountain knotgrass is its remarkable reproductive strategy.Overall, mountain knotgrass is a captivating alpine inhabitant, cherished for its resilience and unique ecological contributions.</t>
-  </si>
-  <si>
-    <t>Nalta Jute</t>
-  </si>
-  <si>
-    <t>Nalta jute is also known as Corchorus olitorius. It also helps to reduce the chances of jaundice and poor absorption of nutrients. Chances of developing other common diseases, including colitis, Crohn's disease, and sprue are reduced significantly when you feed on jute leaves.You can eat Nalta Jute in salads, soups, and stir-fries. It's like a leafy green vegetable, similar to spinach. It can also be used to thicken soups and sauces because it becomes gooey when cooked.Nalta Jute can be enjoyed fresh in salads or cooked through boiling, steaming, sautéing, or as an ingredient in stir-fry dishes. Overall, Nalta Jute is a versatile and valuable plant appreciated for its dual culinary and industrial uses.</t>
-  </si>
-  <si>
-    <t>Night Blooming Cereus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The night-blooming cereus is also known as "Epiphyllum oxypetalum". People use the flower, stem, and young shoots for medicine. Cereus is used for chest pain (angina), fluid retention associated with weak heart function (heart failure), and as a heart stimulant.  Cereus is also used for bladder infections and other urinary tract problems, bleeding, and shortness of breath.The night-blooming cereus, specifically the Epiphyllum oxypetalum variety, is primarily grown as an ornamental plant and is not typically consumed as a food. The plant is known for its beautiful and fragrant flowers, which bloom at night, but it is not cultivated for culinary purposes. The blooms, which can be up to 8 inches in diameter, draw pollinators like moths and bats with their alluring scent. Although it is primarily grown for its aesthetic appeal, it holds a special place in gardening enthusiasts' hearts and is a cherished addition to moonlit gardens and indoor spaces. </t>
-  </si>
-  <si>
-    <t>Panicled Foldwing</t>
-  </si>
-  <si>
-    <t>Panicled Foldwing is also known as "Dicliptera paniculata."Panicled Foldwing (Dicliptera paniculata) is a plant that has been used in traditional herbal medicine in some regions, and it is believed to have various potential medicinal properties, although scientific research on its medicinal uses is limited. Panicled Foldwing  is a plant with reported traditional medicinal uses in some cultures, but scientific evidence supporting its efficacy in treating specific diseases is limited. It will cure Inflammation, Pain Relief, Digestive Issues, Antioxidant Benefits, Antibacteria.This herbaceous perennial boasts striking clusters of tubular, lavender to pinkish flowers that create a captivating visual spectacle in gardens and landscapes. Its slender, lance-shaped leaves complement the vibrant blooms, making it a favorite among horticulturists. This plant serves as a testament to the intersection of botanical beauty and potential herbal benefits, urging caution and further research into its therapeutic potential while delighting with its charming floral display.</t>
-  </si>
-  <si>
-    <t>Prickly Chaff Flower</t>
-  </si>
-  <si>
-    <t>The Prickly Chaff Flower is also known as "Achyranthes aspera." It is a plant species that belongs to the Amaranthaceae family and is recognized by various common names, including "Devil's Horsewhip," "Apamarga," and "Aankdo." Achyranthes Aspera is used in the treatment of boils, asthma, in facilitating delivery, bleeding, bronchitis, debility, dropsy, cold, colic, cough, dog bite, snake bite, scorpion bite, dysentery, earache, headache, leukoderma, renal complications, pneumonia, and skin diseases.Prickly Chaff Flowers are great remedy for bronchitis and asthma. They help open up the lungs making the passage of air easier.  Its most notable feature is the presence of sharp, prickly bracts along its stems, which give rise to its common name. Prickly Chaff Flower is a resilient weed, found in diverse ecosystems globally, from Asia to Africa and beyond. In traditional herbal medicine, it has been employed for various purposes, including its potential anti-inflammatory, analgesic, and diuretic properties.  Prickly Chaff Flower's adaptability and historical medicinal use make it a noteworthy botanical entity in both natural environments and traditional healing practices.</t>
-  </si>
-  <si>
-    <t>Punarnava</t>
-  </si>
-  <si>
-    <t>Purple Fruited Pea Eggplant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punarnava, botanically known as Boerhavia diffusa. Punarnava helps to improve digestion to maintain proper haemoglobin level in your body due to its Pitta balancing,  Deepana (appetizer), Pachan (digestion) properties. Punarnava also helps to maintain your overall health due to its Rasayana (rejuvenation) property which further helps reduce the symptoms of anemia.Punarnava has been traditionally used to cure Edema, Urinary Tract Infections, Liver Disorders,, Respiratory Disorders, Skin Conditions, Digestive Disorder. . It is also believed to possess anti-inflammatory qualities, making it a contender in addressing joint pain and certain respiratory conditions.  Its legacy endures as a symbol of nature's potential for healing and rejuvenation.  
-</t>
-  </si>
-  <si>
-    <t>The Purple Fruited Pea Eggplant is also known as Solanum trilobatum. Pea Eggplant improves the excretory system, blood circulatory system and digestive system.It reduces stomach pain and cough and ejects phlegm.Eating the fruit can reduce swelling, clear stagnant blood, reduce bleeding, comfort bleeding hemorrhoids and treat dysentery. This perennial herb boasts petite, round, and glossy purple fruits, resembling miniature eggplants, hence its common names. Indigenous to various tropical and subtropical regions, it thrives as a hardy, drought-tolerant species.The Purple Fruited Pea Eggplant remains a unique and cherished component of diverse culinary traditions, prized for its striking appearance and distinct flavor.</t>
-  </si>
-  <si>
-    <t>Purple Tephrosia</t>
-  </si>
-  <si>
-    <t>Purple Tephrosia, scientifically known as Tephrosia purpurea.Purple Tephrosia is also used traditionally as folk medicine. According to Ayurveda, the plant is anthelmintic, alexiteric, restorative, and antipyretic. It is used in the treatment of leprosy, ulcers, asthma, and tumors, as well as diseases of the liver, spleen, heart, and blood. It is believed to have several potential medicinal properties, and different parts of the plant, such as the leaves, roots, and seeds, are used for various therapeutic purposes. This hardy perennial herb is characterized by its elegant purple flowers, which grace its slender branches. Tephrosia's legacy as a medicinal herb endures, captivating those intrigued by the intersection of botanical diversity and traditional healing practices, while its vibrant blooms add a touch of color to diverse landscapes.</t>
-  </si>
-  <si>
-    <t>Rosary Pea</t>
-  </si>
-  <si>
-    <t>Rosary Pea is also known by several other names, with one of the most common being "Abrus precatorius." The purified Rosary peas exert stimulatory and strengthening actions on nerves. Due to this action, it is used to treat paralysis; However, it acts as a sedative when used in the high dosage. The rosary peas also have aphrodisiac action. Rosary Pea is not a plant typically used for curing diseases. In modern medicine, Rosary Pea is not used for treating diseases, and its use is discouraged due to the severe health risks involved.Rosary pea poisoning symptoms include: Nausea. Vomiting or abdominal pain. Diarrhea that can worsen and contain blood.  This perennial vine boasts delicate pinnate leaves and striking clusters of red and black seeds, making it an eye-catching presence in various tropical regions. Rosary Pea serves as a stark reminder of nature's beauty entwined with danger, warranting the utmost caution in its handling and avoidance of any use for therapeutic purposes.</t>
-  </si>
-  <si>
-    <t>Shaggy Button Weed</t>
-  </si>
-  <si>
-    <t>Shaggy Button Weed is also known as "Diodia virginiana." It is Used as antieczemic, antibacterial, antidiarrheal, antidysentery. Studies have suggested antioxidant, antibacterial, cardioprotective, constipative, antihyperlipidemic, antinociceptive, free radical scavenging, anticancer, antidiabetic antituberculosis, hepatoprotective properties. It helps to  heal leg ulcers, wounds, headaches, toothaches.  This plant is primarily considered a weed and is not typically used in diagnosing or treating medical conditions. In fact, Shaggy Button Weed is often regarded as an unwanted plant in lawns and gardens due to its invasive nature.  This unassuming perennial exhibits a low, sprawling growth habit, with narrow, lance-shaped leaves and tiny, inconspicuous white flowers that form button-like clusters. Despite its uncelebrated status, this unpretentious plant serves as a reminder of nature's resilience and ability to thrive even in overlooked corners of the world.</t>
-  </si>
-  <si>
-    <t>Samll Water Clover</t>
-  </si>
-  <si>
-    <t>Small Water Clover, scientifically known as Marsilea minuta. Water clovers can be used as medicine to treat many issues including Anti-Inflammatory disease, as a diuretic, depurative,  Febrifuge. Small Water Clover is a plant and does not have the ability to diagnose or treat medical conditions. It is primarily a botanical species that grows in aquatic or semi-aquatic environments and does not have a role in medical diagnostics or healthcare.  Its appearance is reminiscent of clover, with delicate, four-leafed fronds that float gracefully on the water's surface. Each leaflet has a distinct, rounded shape and is often marked with a prominent midrib, adding to its visual appeal. This aquatic plant plays a crucial ecological role by providing habitat and sustenance for various aquatic organisms.  Small Water Clover serves as a reminder of nature's diversity and adaptability in thriving within the intricate balance of aquatic ecosystems.</t>
-  </si>
-  <si>
-    <t>Spiderwisp</t>
-  </si>
-  <si>
-    <t>Spiderwisp is also known as Cleome gynandra. A decoction of the root is used to treat fevers. The juice of the root is used to relieve scorpion stings. The leaves, applied as a poultice, are used as a vesicant and rubefacient in the treatment of rheumatism. The juice of the leaves is a remedy for pain in the ear.  Its leaves can be dried and used to make a tea that prevents scurvy; fresh leaves are often used to supplement diets of pregnant and lactating women; and the roots are used to treat fevers, scorpion stings and arthritis. The plant naturally repels insects. In culinary use, Cleome gynandra is known for its edible leaves and young shoots, which are used as a leafy green vegetable in various dishes, particularly in African and Asian cuisines. It is commonly used in salads, stews, and stir-fries. This annual or perennial herb displays an upright growth habit, reaching up to several feet in height, with distinctive pinnate leaves and delicate, clustered flowers that resemble spider legs.  Cleome gynandra exemplifies the harmony of culinary delight and potential health benefits, making it a valuable botanical entity in both gastronomy and traditional healing practices.</t>
-  </si>
-  <si>
-    <t>Square Stakled Vine</t>
-  </si>
-  <si>
-    <t>Square Stakled Vine is also known as Cissus quadrangularis. It is use for  diabetes, obesity, high cholesterol, bone fractures, allergies, cancer, stomach upset, painful menstrual periods, asthma, malaria, wound healing, peptic ulcer disease, weak bones, weak bones (osteoporosis) and as body building supplements as an alternative to anabolic steroids. Cissus quadrangularis is a plant that has been revered for its medicinal properties for thousands of years. Historically, it has been used to treat many conditions, including hemorrhoids, gout, asthma, and allergies.  This hardy perennial vine is recognized for its versatility and potential medicinal properties. Its slender, angular stems bear small, ovate leaves and clusters of inconspicuous flowers. In traditional medicine, particularly Ayurveda, Cissus quadrangularis has garnered attention for its potential bone-strengthening and joint-supporting qualities. Cissus quadrangularis stands as a testament to the synergy between traditional knowledge and modern science, offering the promise of enhanced bone health while showcasing nature's adaptability in diverse ecosystems.</t>
-  </si>
-  <si>
-    <t>Stinking Passionflower</t>
-  </si>
-  <si>
-    <t>Stinking Passionflower is also known as Passiflora foetida. It is used as dietary supplement for anxiety and sleep problems, as well as for pain, heart rhythm problems, menopausal symptoms, and attention-deficit hyperactivity disorder. It is applied to the skin for burns and to treat hemorrhoids. Stinking Passionflower is a plant known for its distinctive odor when its leaves are crushed or damaged, but it is not used for diagnosing or treating medical conditions in humans.  The name "Stinking Passionflower" is derived from the pungent odor released when its leaves and stems are crushed, an adaptation to deter herbivores. The Stinking Passionflower is an exemplar of biodiversity and the synthesis of traditional wisdom and modern scientific exploration.</t>
-  </si>
-  <si>
-    <t>Sweet Basil</t>
-  </si>
-  <si>
-    <t>Sweet Basil, scientifically known as Ocimum basilicum. Sweet Basil is used for stomach spasms, loss of appetite, intestinal gas, kidney conditions, fluid retention, head colds, warts, and worm infections. It is also used to treat snake and insect bites. Women sometimes use basil before and after childbirth to promote blood circulation, and also to start the flow of breast milk. Sweet basil is more severely affected than other basil varieties. Typical symptoms are the water-soaked brown and black spots on leaves and streaking on the stems. The leaf spots are angular or irregular or delineated by the small veins. This annual herb boasts lush, green leaves with a distinct heart-shaped appearance, exuding a delightful, sweet aroma that is both earthy and peppery. Sweet Basil's lush greenery and enticing fragrance make it a cherished addition to herb gardens, where it thrives under the sun's warm embrace. It embodies the fusion of flavor and fragrance, transforming ordinary dishes into culinary delights and gracing gardens with its vibrant presence.</t>
-  </si>
-  <si>
-    <t>Sweet Flag</t>
-  </si>
-  <si>
-    <t>Sweet Flag, scientifically known as Acorus calamus. Sweet flag is mainly used in medicine. The oil is used to cure gastritis. In the form of infusion it is carminative and possesses emetic and anti-spasmodic properties. It is used in perfumery industry.Sweet Flag is a plant that has been used in traditional medicine systems, such as Ayurveda and traditional Chinese medicine, for its potential medicinal properties. Its rhizomes are particularly valued for their aromatic and therapeutic qualities. This aquatic or semi-aquatic plant is native to wetlands and marshy areas, where it thrives with its reed-like, sword-shaped leaves and characteristic sweet, spicy fragrance. Its roots, known as rhizomes, contain valuable aromatic compounds and are treasured for their potential medicinal and aromatic properties.</t>
-  </si>
-  <si>
-    <t>Tinnevelly Senna</t>
-  </si>
-  <si>
-    <t>Tinnevelly Senna, is also known as Senna angustifolia. Tinnevelly Senna is also included in several herbal teas, used for purging and in weight loss. Extracts of the leaves, flowers and fruit of senna have been used for centuries in folk medicine as a laxative and stimulant.  It is not used to diagnose medical conditions. The plant contains compounds called anthraquinones, which have a laxative effect by irritating the colon and promoting bowel contractions. Tinnevelly Senna (Senna angustifolia) is available in various forms like Dried Leaves, Powder, Capsules or Tablets, Liquid Extract. This perennial plant hails from the arid regions of India and Northern Africa, thriving in dry and sandy soils. It boasts slender, lance-shaped leaves and bright yellow flowers, a testament to its hardy nature. Yet, its power comes with caution, as improper or excessive use can lead to side effects. This herbal marvel exemplifies the delicate balance between nature's remedies and responsible usage, serving as a potent tool in digestive health when employed judiciously and under professional guidance.</t>
-  </si>
-  <si>
-    <t>Trellis Vine</t>
-  </si>
-  <si>
-    <t>Trellis Vine is also known as Pergularia Daemia. Medicine Benefits of Gale of Trellis-Vine Powder is commonly used for the treatment of cough and cold-related problems. Trellis Vine is a term used to describe climbing plants that are cultivated to grow vertically on trellises or support structures, creating visually appealing garden features.  These plants, chosen from a diverse array of species including roses, ivy, clematis, and grapevines, lend a touch of natural beauty to gardens and outdoor spaces.  With customization options to suit climate and personal preferences, trellis vines transform outdoor spaces into inviting havens of natural splendor and creativity.</t>
-  </si>
-  <si>
-    <t>Velvet Bean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velvet Bean, scientifically known as Mucuna pruriens. It is used to cure Improves Brain Function, Anti-Parkinson's Effect, Anti-Cancer Effect, Velvet Beans Prevents Bacterial Infections, Anti-Venom Properties, Mood Stabilizer, Prevents Iron Deficiency. The consistency of Velvet Bean can vary depending on the part of the plant being are Seeds, Pods, Leaves, Stems, Fibers. Velvet Bean is a plant species known for its potential medicinal properties and traditional uses in herbal medicine, particularly in Ayurveda and traditional medicine systems of various cultures.Velvet Bean's leaves are soft and green, providing a foil to its prickly pods. Its seeds possess a hard and firm consistency when dried, encasing a treasure trove of medicinal promise. These seeds have long been used in traditional medicine, particularly in Ayurveda, for their potential to support neurological health and overall well-being. While Velvet Bean offers intriguing therapeutic possibilities, its bristling pods serve as a reminder of nature's multifaceted character, offering both remedy and a touch of discomfort in its embrace.
-</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+  <si>
+    <t>MEDICINAL NAME</t>
+  </si>
+  <si>
+    <t>USES</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ADVANTAGE</t>
+  </si>
+  <si>
+    <t>DISADVANTAGE</t>
+  </si>
+  <si>
+    <t>Tulasi, or Holy Basil (Ocimum sanctum or Ocimum tenuiflorum), is a fragrant, green leafy plant that belongs to the Lamiaceae family. It is native to the Indian subcontinent and is cultivated throughout Southeast Asia. The leaves of the Tulasi plant are characterized by their aromatic and peppery flavor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Respiratory Health: Tulasi is often used to treat respiratory conditions like coughs, colds, and bronchitis due to its antimicrobial and anti-inflammatory properties.
+2)Stress Reduction: It is considered an adaptogen, helping the body cope with stress and anxiety.
+3)Digestive Health: Tulasi may aid digestion and alleviate digestive issues.
+4)Cardiovascular Health: Some studies suggest that Tulasi may help regulate blood pressure and reduce the risk of heart disease.
+5)Antioxidant Properties: It's rich in antioxidants, which can help combat free radicals in the body.
+1)Respiratory Health: Tulasi is often used to treat respiratory conditions like coughs, colds, and bronchitis due to its antimicrobial and anti-inflammatory properties.
+2)Stress Reduction: It is considered an adaptogen, helping the body cope with stress and anxiety.
+3)Digestive Health: Tulasi may aid digestion and alleviate digestive issues.
+4)Cardiovascular Health: Some studies suggest that Tulasi may help regulate blood pressure and reduce the risk of heart disease.
+5)Antioxidant Properties: It's rich in antioxidants, which can help combat free radicals in the body.
+</t>
+  </si>
+  <si>
+    <t>TULASI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Medicinal Benefits: Tulasi has a wide range of medicinal properties and is used to treat various health conditions.
+2)Spiritual Significance: It is considered a symbol of purity and devotion in Hinduism and is used in religious ceremonies.
+3)Culinary Uses: Its leaves add a unique flavor to dishes and teas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Allergic Reactions: Some individuals may be allergic to Tulasi, experiencing skin rashes, itching, or other allergic reactions.
+2)Blood Thinning: Tulasi may have mild blood-thinning effects, which could be a disadvantage for individuals on blood-thinning medications.
+3)Pregnancy and Breastfeeding: Pregnant and breastfeeding women should use Tulasi with caution, as its safety in these situations is not well-established.
+</t>
+  </si>
+  <si>
+    <t>BETEL</t>
+  </si>
+  <si>
+    <t>Betel is a climbing vine with heart-shaped leaves that are glossy and often deep green. It produces small, white flowers and heart-shaped fruits. The most commonly used part of the Betel plant is its leaves, which are often chewed in combination with other substances, such as areca nut and slaked lime, as a traditional practice in various cultures.</t>
+  </si>
+  <si>
+    <t>1)Chewing: Betel leaves are frequently chewed with areca nut and slaked lime in a practice known as "betel chewing" or "paan." This practice is prevalent in many parts of South and Southeast Asia and is often used for its stimulating and social effects.
+2)Medicinal Uses: Betel leaves have been used in traditional medicine for their potential medicinal properties. They are believed to have antimicrobial, anti-inflammatory, and antioxidant properties. In some cultures, they are used to alleviate conditions like coughs and headaches.</t>
+  </si>
+  <si>
+    <t>1)Stimulant: Betel leaves contain compounds that can provide a mild stimulating effect, leading to increased alertness and a sense of well-being.
+2)Cultural Significance: Betel chewing has cultural and social significance in many Asian societies and is often a part of traditional rituals and ceremonies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Oral Health Risks: Chewing betel leaves with areca nut and slaked lime is associated with various oral health problems, including tooth staining, gum disease, and an increased risk of oral cancer.
+2)Addiction: Betel chewing can be habit-forming, and long-term use may lead to addiction.
+3)Health Risks: The practice of betel chewing has been linked to an increased risk of various health issues, including cardiovascular problems and digestive disorders.
+4)Carcinogenicity: The International Agency for Research on Cancer (IARC) has classified areca nut, a common component of betel chewing, as a Group 1 carcinogen, indicating that it is carcinogenic to humans.
+</t>
+  </si>
+  <si>
+    <t>NEEM</t>
+  </si>
+  <si>
+    <t>Neem is a fast-growing evergreen tree that can reach a height of up to 50 feet (15 meters). It has a dense, spreading crown of dark green, pinnate leaves with serrated edges. The tree produces fragrant white flowers and small, olive-like fruits, which contain the seeds commonly used for extracting Neem oil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Antibacterial and Antiviral Properties: Neem is used to treat various infections and skin disorders due to its natural antibacterial and antiviral properties.
+2)Anti-Inflammatory: It is used to reduce inflammation and alleviate conditions like arthritis.
+3)Antifungal: Neem oil is employed to combat fungal infections.
+4)Oral Health: Neem twigs are traditionally used as a natural toothbrush due to their antimicrobial properties.
+</t>
+  </si>
+  <si>
+    <t>1)Natural Remedies: Neem provides natural solutions for a range of health and agricultural issues, often with fewer side effects than synthetic alternatives.
+2)Sustainability: The Neem tree is hardy and thrives in arid conditions, making it a sustainable source of various products.
+3)Biodiversity: Neem-based pesticides help protect biodiversity by sparing non-target insects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Bitter Taste: The bitterness of Neem can make it unpalatable in some formulations, such as medicinal teas or toothpaste.
+2)Skin Sensitivity: Neem oil can cause skin irritation in some individuals, so a patch test is advisable.
+3)Environmental Impact: While Neem-based pesticides are generally considered less harmful than chemical alternatives, they should still be used judiciously to minimize environmental impact.
+</t>
+  </si>
+  <si>
+    <t>Hibiscus is a tropical and subtropical plant characterized by its large, trumpet-shaped flowers and dark green leaves. The flowers of the Hibiscus plant are typically brightly colored, with shades of red, pink, yellow, orange, or white. They have a distinctive pistil and stamen, and their petals often have a slightly wrinkled appearance. Hibiscus plants can grow as shrubs or small trees, and they are well-suited for warm and sunny climates.</t>
+  </si>
+  <si>
+    <t>HIBISCUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Blood Pressure Regulation: Hibiscus tea may help lower blood pressure due to its diuretic and vasodilatory properties.
+2)Antioxidant Effects: It is rich in antioxidants, which may contribute to overall health and wellness.
+3)Weight Management: Some studies suggest that hibiscus extract may aid in weight management by inhibiting the absorption of dietary carbohydrates.
+1)Blood Pressure Regulation: Hibiscus tea may help lower blood pressure due to its diuretic and vasodilatory properties.
+2)Antioxidant Effects: It is rich in antioxidants, which may contribute to overall health and wellness.
+3)Weight Management: Some studies suggest that hibiscus extract may aid in weight management by inhibiting the absorption of dietary carbohydrates.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Rich in Antioxidants: Hibiscus is a good source of antioxidants, which may help protect cells from damage caused by free radicals.
+2)Natural Beverage: Hibiscus tea is caffeine-free and provides a refreshing alternative to traditional teas and coffee.
+3)Ornamental Beauty: The striking flowers of Hibiscus make it a popular choice for gardeners and landscapers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Possible Interactions: Hibiscus tea may interact with certain medications, especially those used to lower blood pressure. Consult with a healthcare provider if you have concerns.
+2)Allergies: Some individuals may be allergic to hibiscus, experiencing skin rashes or gastrointestinal discomfort.
+</t>
+  </si>
+  <si>
+    <t>BAMBOO</t>
+  </si>
+  <si>
+    <t>Bamboo is a group of woody perennial grasses that come in various species, sizes, and colors. Some bamboo species can grow to impressive heights, with the Giant Bamboo (Dendrocalamus giganteus) being one of the tallest, reaching up to 98 feet (30 meters). Bamboo shoots emerge from underground rhizomes and grow rapidly, making bamboo one of the fastest-growing plants in the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Construction and Building Material: Bamboo has been used as a building material for centuries. Its strong and flexible properties make it ideal for constructing houses, bridges, scaffolding, and even furniture. It is a sustainable alternative to traditional wood.
+2)Culinary Uses: Bamboo shoots are edible and widely used in Asian cuisine, particularly in dishes like stir-fries, curries, and salads. These shoots are known for their crisp texture and mild flavor.
+3)Textiles and Paper: Bamboo fibers are used to produce soft and breathable textiles, such as bamboo clothing, sheets, and towels. Additionally, bamboo pulp is used in paper production.
+4)Landscaping and Ornamental Plant: Bamboo is often used in landscaping as a decorative plant. It creates natural screens, windbreaks, and adds a tropical aesthetic to gardens and parks.
+</t>
+  </si>
+  <si>
+    <t>Sustainability: Bamboo is an extremely renewable resource, with some species growing up to 36 inches (91 cm) in a single day. It requires minimal water, pesticides, and fertilizers to thrive.
+Strength and Durability: Bamboo is strong and durable, often compared to hardwoods like oak. It's used in construction for its resilience.
+Versatility: Bamboo has a wide range of applications, from construction to textiles, making it a highly versatile plant.
+Carbon Sequestration: Bamboo can absorb large amounts of carbon dioxide from the atmosphere, contributing to climate change mitigation.</t>
+  </si>
+  <si>
+    <t>Invasive Species: Some bamboo species can be invasive, spreading rapidly and potentially disrupting local ecosystems.
+Vulnerability to Pests: While bamboo is generally resistant to pests and diseases, it can still be susceptible to specific pests in certain regions.
+Controlled Harvesting: Bamboo should be harvested sustainably to prevent overexploitation and maintain its ecological benefits.</t>
+  </si>
+  <si>
+    <t>Aloe Vera is a perennial succulent plant with thick, fleshy leaves that are lance-shaped and lined with serrated edges. It is native to arid regions of North Africa but is now cultivated in many parts of the world. Aloe Vera is known for its gel, which is found inside the leaves and is used for its various properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Skin Health: It is commonly used to soothe sunburn, minor burns, and skin irritations due to its anti-inflammatory and cooling properties.
+2)Wound Healing: Aloe Vera may accelerate wound healing and reduce the risk of infection.
+3)Digestive Health: Aloe Vera juice is sometimes used to alleviate digestive issues and promote gastrointestinal health, although its effectiveness for this purpose is debated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Skin Healing: Aloe Vera is well-regarded for its soothing and healing properties for various skin conditions.
+2)Hydration: Its gel is a natural moisturizer and can help keep the skin hydrated.
+3)Easy to Grow: Aloe Vera is a low-maintenance plant that is easy to grow indoors or in arid climates.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Potential Allergic Reactions: While rare, some individuals may be allergic to Aloe Vera, experiencing skin rashes or other allergic symptoms.
+2)Laxative Effect: In larger quantities, Aloe Vera juice may have a laxative effect and should be used with caution.
+3)Limited Scientific Evidence: While Aloe Vera has been used traditionally for various health purposes, more rigorous scientific research is needed to confirm many of its claimed benefits.
+</t>
+  </si>
+  <si>
+    <t>Castor is a flowering plant native to the Mediterranean region, Eastern Africa, and India but is now grown in many parts of the world. It is an upright, tropical shrub or small tree that can reach heights of up to 40 feet (12 meters). Castor plants have large palmate leaves with serrated edges and produce clusters of small, greenish-yellow flowers, which are followed by spiky fruit capsules containing seeds.</t>
+  </si>
+  <si>
+    <t>CASTOR</t>
+  </si>
+  <si>
+    <t>Castor oil is used as a laxative, and it is also found in various topical preparations for skin and hair care.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Versatility: Castor oil is a versatile product with applications in various industries, from industrial manufacturing to healthcare and cosmetics.
+2)Renewable Resource: Castor plants are relatively easy to grow and provide a renewable source of castor oil.
+3)Lubricating Properties: Castor oil's lubricating properties make it valuable in machinery and equipment.
+</t>
+  </si>
+  <si>
+    <t>Toxic Seeds: The seeds of the castor plant contain a toxic compound called ricin, which can be lethal if ingested in sufficient quantities. Proper care must be taken when handling castor seeds to avoid accidental poisoning.
+Laxative Effect: While castor oil is used as a laxative, excessive consumption can lead to diarrhea and abdominal cramps.
+Environmental Impact: Castor plants can become invasive in some regions, potentially disrupting local ecosystems.</t>
+  </si>
+  <si>
+    <t>TAMARIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Digestive Aid: It is used to relieve indigestion, constipation, and other digestive issues due to its mild laxative properties.
+2)Anti-Inflammatory: Tamarind is believed to have anti-inflammatory and antioxidant properties, which may benefit overall health.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Tamarind (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFD1D5DB"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tamarindus indica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD1D5DB"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>) is a medium-sized, slow-growing tree native to tropical Africa but is now cultivated in many tropical regions around the world. The tree features distinctive feathery foliage and produces elongated, brown pods filled with pulp and seeds. The pulp inside the pods is what is primarily used for its culinary and medicinal properties.</t>
+    </r>
+  </si>
+  <si>
+    <t>Unique Flavor: Tamarind offers a distinctive sweet and sour flavor that enhances the taste of a wide variety of dishes.
+Nutritional Value: It is a good source of vitamins, minerals, and dietary fiber.
+Versatility: Tamarind can be used in both savory and sweet dishes, making it a versatile ingredient.</t>
+  </si>
+  <si>
+    <t>High Sugar Content: Tamarind pulp and products made from it can have a relatively high sugar content, which may not be suitable for those with sugar-related health concerns.
+Acidity: The acidity of tamarind may not be well-tolerated by individuals with certain digestive conditions.
+Potential Allergies: Some people may be allergic to tamarind and should avoid it.</t>
+  </si>
+  <si>
+    <t>MANGO</t>
+  </si>
+  <si>
+    <t>Mango is a tropical fruit tree native to South Asia, but it is now grown in many tropical and subtropical regions around the world. The mango tree is evergreen and can grow to significant heights, with dense foliage of large, lance-shaped leaves. The fruit itself is typically oval or kidney-shaped, with a smooth, colorful skin that can range from green to various shades of yellow, orange, or red, depending on the variety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While mangoes themselves are not used as a medicinal remedy, they are a good source of vitamins, minerals, and antioxidants that contribute to overall health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Rich in Nutrients: Mangoes are a good source of vitamins A and C, potassium, and dietary fiber.
+2)Delicious Flavor: Mangoes are celebrated for their sweet, tropical flavor, making them a favorite fruit for many.
+3)Versatility: They can be used in a wide range of dishes, from sweet to savory, and in various culinary traditions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Allergies: Some individuals may be allergic to mangoes, experiencing skin rashes or gastrointestinal discomfort.
+2)High Sugar Content: Mangoes are relatively high in natural sugars, so people with diabetes or those watching their sugar intake should consume them in moderation.
+</t>
+  </si>
+  <si>
+    <t>TURMERIC</t>
+  </si>
+  <si>
+    <t>Turmeric is a bright yellow spice derived from the root of the Curcuma longa plant, known for its earthy flavor and vibrant color.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It boasts anti-inflammatory properties, aids digestion, and is believed to have antioxidant benefits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural remedy for various ailments; culinary versatility.</t>
+  </si>
+  <si>
+    <t>Stains easily, potential gastrointestinal discomfort in excess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cardamom is a fragrant spice derived from the seeds of plants in the ginger family, offering a sweet, aromatic flavor.</t>
+  </si>
+  <si>
+    <t>CARDAMOM</t>
+  </si>
+  <si>
+    <t>It aids digestion, freshens breath, and may help lower blood pressure.</t>
+  </si>
+  <si>
+    <t>Can be expensive; excessive consumption may lead to digestive issues.</t>
+  </si>
+  <si>
+    <t>Cinnamon is a warm, aromatic spice obtained from the bark of trees, known for its sweet and woody flavor.</t>
+  </si>
+  <si>
+    <t>CINNAMON</t>
+  </si>
+  <si>
+    <t>It may help regulate blood sugar, has anti-inflammatory properties, and is rich in antioxidants.</t>
+  </si>
+  <si>
+    <t>Enhances the taste of desserts, adds depth to savory dishes; potential health benefits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excessive intake can be harmful; may cause mouth irritation if consumed in large amounts.</t>
+  </si>
+  <si>
+    <t>Clove is a fragrant spice derived from dried flower buds of the Syzygium aromaticum tree, imparting a strong, warm flavor.</t>
+  </si>
+  <si>
+    <t>Cloves possess antimicrobial properties, may help soothe toothaches, and contain antioxidants.</t>
+  </si>
+  <si>
+    <t>CLOVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adds depth to spice blends and savory dishes; potential dental benefits.</t>
+  </si>
+  <si>
+    <t>Intense flavor can overwhelm if used excessively; not suitable for all dishes.</t>
+  </si>
+  <si>
+    <t>GINGER</t>
+  </si>
+  <si>
+    <t>Ginger is a pungent root spice, prized for its spicy, earthy taste and aroma.</t>
+  </si>
+  <si>
+    <t>It aids digestion, alleviates nausea, and has anti-inflammatory properties.</t>
+  </si>
+  <si>
+    <t>Versatile in cooking, popular in teas; natural remedy for various ailments.</t>
+  </si>
+  <si>
+    <t>Can be overpowering if used excessively; some may find its flavor too strong.</t>
+  </si>
+  <si>
+    <t>PEPPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pepper is a spicy condiment derived from dried berries of the Piper nigrum plant, known for its bold and zesty flavor.</t>
+  </si>
+  <si>
+    <t>It can improve digestion, has potential antioxidant benefits, and may aid weight management.</t>
+  </si>
+  <si>
+    <t>Enhances the taste of a wide range of dishes; digestive aid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excessive consumption may irritate the stomach; can be too spicy for some.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALOEVERA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,17 +374,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Rounded MT Bold"/>
+      <sz val="10"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FFECECF1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color rgb="FFD1D5DB"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,11 +413,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -229,10 +441,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,193 +739,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D879E9ED-F7C7-417C-A4DB-19E5BD6871A5}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D117317A-7EB2-4854-A549-5AD0708F3426}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="144.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="271.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="276" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="218.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="204" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="182.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="210.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
